--- a/DataDrivenFramework/src/test/resources/Excel/TestData.xlsx
+++ b/DataDrivenFramework/src/test/resources/Excel/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>firstname</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>Rajput</t>
+  </si>
+  <si>
+    <t>alertText</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
   </si>
 </sst>
 </file>
@@ -362,15 +368,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" activeCellId="1" sqref="A2 G13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="4" width="25.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,8 +389,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -390,6 +402,9 @@
       </c>
       <c r="C2">
         <v>246761</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/DataDrivenFramework/src/test/resources/Excel/TestData.xlsx
+++ b/DataDrivenFramework/src/test/resources/Excel/TestData.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="80" yWindow="100" windowWidth="19100" windowHeight="7300"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="addCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="openAccountTest" sheetId="2" r:id="rId2"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>firstname</t>
   </si>
@@ -37,6 +37,69 @@
   </si>
   <si>
     <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>Account created successfully</t>
+  </si>
+  <si>
+    <t>Lavendra Rajput</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>BankManagerLoginTest</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Yuvraj</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Rekha</t>
+  </si>
+  <si>
+    <t>Rani</t>
+  </si>
+  <si>
+    <t>Vani</t>
+  </si>
+  <si>
+    <t>Shekhawat</t>
+  </si>
+  <si>
+    <t>runmode</t>
   </si>
 </sst>
 </file>
@@ -72,8 +135,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H20" sqref="H20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -379,7 +451,7 @@
     <col min="4" max="4" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,8 +464,11 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -405,6 +480,77 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>246761</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>246761</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>246761</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>246761</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -414,24 +560,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>